--- a/doc/vitalsign.xlsx
+++ b/doc/vitalsign.xlsx
@@ -12,15 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$73</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
   <si>
     <t>Elements</t>
   </si>
@@ -91,18 +90,12 @@
     <t>1.2.1.3</t>
   </si>
   <si>
-    <t>mmlVs:numValue</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
     <t>1.2.1.4</t>
   </si>
   <si>
-    <t>mmlVs:unit</t>
-  </si>
-  <si>
     <t>mmlVs:uCode</t>
   </si>
   <si>
@@ -191,12 +184,6 @@
   </si>
   <si>
     <t>mmlVs:observer</t>
-  </si>
-  <si>
-    <t>mmlVs:observerCode</t>
-  </si>
-  <si>
-    <t>mmlVs:observerCodeId</t>
   </si>
   <si>
     <t>1.1.5</t>
@@ -477,10 +464,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>測定した体位</t>
     <rPh sb="0" eb="2">
       <t>ソクテイ</t>
@@ -534,6 +517,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>mmlVs:value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:context</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.1.5.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1.2.1.6</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -542,27 +569,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.2.1.8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlVs:value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlVs:context</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlVs:content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlVs:item</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlVs:name</t>
+    <t>#IMPLIED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#IMPLIED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#REQUIRED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:numValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:obsCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:obsCodeId</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -978,15 +1009,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -1002,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
@@ -1011,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1031,7 +1065,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1052,7 +1086,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -1069,7 +1103,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -1086,15 +1120,15 @@
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
@@ -1110,7 +1144,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>6</v>
@@ -1125,7 +1159,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
@@ -1134,15 +1168,15 @@
         <v>10</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
@@ -1157,7 +1191,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>6</v>
@@ -1166,14 +1200,14 @@
         <v>10</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>6</v>
@@ -1185,10 +1219,10 @@
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
@@ -1203,7 +1237,7 @@
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>6</v>
@@ -1219,7 +1253,7 @@
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>6</v>
@@ -1231,10 +1265,10 @@
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
@@ -1249,7 +1283,7 @@
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>6</v>
@@ -1265,7 +1299,7 @@
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>6</v>
@@ -1277,10 +1311,10 @@
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
@@ -1295,7 +1329,7 @@
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>6</v>
@@ -1311,7 +1345,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>6</v>
@@ -1327,7 +1361,7 @@
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>6</v>
@@ -1339,10 +1373,10 @@
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
@@ -1358,7 +1392,7 @@
         <v>1.2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1372,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1386,16 +1420,18 @@
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1408,13 +1444,13 @@
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1427,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1436,16 +1472,18 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1453,26 +1491,26 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="1"/>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
@@ -1483,14 +1521,14 @@
       </c>
       <c r="F31" s="1"/>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -1506,7 +1544,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
@@ -1518,10 +1556,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1530,15 +1568,15 @@
       </c>
       <c r="F34" s="1"/>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1547,15 +1585,15 @@
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
@@ -1566,14 +1604,14 @@
       </c>
       <c r="F36" s="1"/>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -1587,7 +1625,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
@@ -1603,7 +1641,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
@@ -1615,10 +1653,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
@@ -1634,7 +1672,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1644,198 +1682,202 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>38</v>
+      <c r="A42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>99</v>
+      <c r="A43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>39</v>
+      <c r="A44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>40</v>
+      <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/vitalsign.xlsx
+++ b/doc/vitalsign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15240" windowHeight="8130"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15240" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$57</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
   <si>
     <t>Elements</t>
   </si>
@@ -36,27 +36,12 @@
     <t>mmlVs:VitalSignModule</t>
   </si>
   <si>
-    <t>mmlVs:recordId</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>#REQUIRED</t>
-  </si>
-  <si>
-    <t>mmlVs:observedTime</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
     <t>#IMPLIED</t>
   </si>
   <si>
-    <t>mmlVs:recordTime</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -69,63 +54,12 @@
     <t>+</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.1.1</t>
-  </si>
-  <si>
-    <t>mmlVs:itCode</t>
-  </si>
-  <si>
-    <t>MML00??</t>
-  </si>
-  <si>
-    <t>mmlVs:itCodeId</t>
-  </si>
-  <si>
-    <t>1.2.1.2</t>
-  </si>
-  <si>
-    <t>1.2.1.3</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
-    <t>1.2.1.4</t>
-  </si>
-  <si>
-    <t>mmlVs:uCode</t>
-  </si>
-  <si>
-    <t>mmlVs:uCodeId</t>
-  </si>
-  <si>
-    <t>1.2.1.5</t>
-  </si>
-  <si>
-    <t>mmlVs:referenceInfo</t>
-  </si>
-  <si>
-    <t>mmlCm:extRef</t>
-  </si>
-  <si>
     <t>mmlVs:itemMemo</t>
   </si>
   <si>
-    <t>mmlVs:imCodeName</t>
-  </si>
-  <si>
-    <t>mmlVs:imCode</t>
-  </si>
-  <si>
-    <t>mmlVs:imCodeId</t>
-  </si>
-  <si>
-    <t>mmlVs:itemMemoF</t>
-  </si>
-  <si>
     <t>mmlVs:protocol</t>
   </si>
   <si>
@@ -184,27 +118,6 @@
   </si>
   <si>
     <t>mmlVs:observer</t>
-  </si>
-  <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
-    <t>mmlVs:repMemo</t>
-  </si>
-  <si>
-    <t>mmlVs:repCodeName</t>
-  </si>
-  <si>
-    <t>mmlVs:repCode</t>
-  </si>
-  <si>
-    <t>mmlVs:repCodeId</t>
-  </si>
-  <si>
-    <t>1.1.6</t>
-  </si>
-  <si>
-    <t>mmlVs:repMemoF</t>
   </si>
   <si>
     <t>項目名称</t>
@@ -217,40 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目コード</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記録ID</t>
-    <rPh sb="0" eb="2">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>観察された時間</t>
-    <rPh sb="0" eb="2">
-      <t>カンサツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記録された時間</t>
-    <rPh sb="0" eb="2">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バイタルサイン項目名称テーブル</t>
     <rPh sb="7" eb="9">
       <t>コウモク</t>
@@ -298,36 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単位</t>
-    <rPh sb="0" eb="2">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値（文字表記）</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値（数値）</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（身長）</t>
     <rPh sb="1" eb="3">
       <t>シンチョウ</t>
@@ -402,13 +251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外部モジュール</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メモ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -423,16 +265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>参考情報</t>
-    <rPh sb="0" eb="2">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Data Types</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,10 +357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mmlVs:content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlVs:item</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -557,30 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.2.1.5.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.1.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.1.7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#IMPLIED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#IMPLIED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#REQUIRED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlVs:numValue</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,6 +398,85 @@
   </si>
   <si>
     <t>mmlVs:obsCodeId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:protMemo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPi:PatientModule</t>
+  </si>
+  <si>
+    <t>1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:vsMemo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlVs:observedTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dateTime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -671,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +590,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,10 +898,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1036,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
@@ -1045,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1065,171 +951,168 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
+      <c r="F5" s="11"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -1237,641 +1120,399 @@
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="11"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="F25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>15</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="H26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
+      <c r="H26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="H28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="H30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="H31" t="s">
-        <v>72</v>
+      <c r="A30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="H34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="H36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
-        <v>67</v>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>71</v>
+      <c r="A52" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/doc/vitalsign.xlsx
+++ b/doc/vitalsign.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$58</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>Elements</t>
   </si>
@@ -365,22 +365,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.3.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.3.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.3.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.3.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,10 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.3.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -477,6 +457,30 @@
   </si>
   <si>
     <t>dateTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -898,10 +902,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -956,38 +960,31 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F5" s="11"/>
       <c r="H5" s="4"/>
@@ -996,7 +993,7 @@
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>5</v>
@@ -1004,47 +1001,46 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="11"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>5</v>
@@ -1052,45 +1048,45 @@
       <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>5</v>
@@ -1098,45 +1094,45 @@
       <c r="E12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>5</v>
@@ -1144,374 +1140,390 @@
       <c r="E15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F23" s="1"/>
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>1.3</v>
+      <c r="A24" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="H27" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="H28" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
